--- a/ComputedResults/Area/SixBorderVowels/Danish/MFCC/6_bordervowels_mfcc_da_IDS.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Danish/MFCC/6_bordervowels_mfcc_da_IDS.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>306302.1862226577</v>
+        <v>306302</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>152249.2916089715</v>
+        <v>152249</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>146107.2754014634</v>
+        <v>146107</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>873037.470976598</v>
+        <v>873037</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1073709.732812096</v>
+        <v>1073710</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11510.70566185213</v>
+        <v>11511</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>212455.6299643197</v>
+        <v>212456</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>779885.6398720308</v>
+        <v>779886</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>419338.0831666959</v>
+        <v>419338</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>392631.0752929527</v>
+        <v>392631</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>579438.7721090139</v>
+        <v>579439</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>375792.450825597</v>
+        <v>375792</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>546909.1570960488</v>
+        <v>546909</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>391367.1104688143</v>
+        <v>391367</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>834607.6531618168</v>
+        <v>834608</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>508668.6299725844</v>
+        <v>508669</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1255156.273474798</v>
+        <v>1255156</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>606736.5374838136</v>
+        <v>606737</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62758.308285793</v>
+        <v>62758</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221310.7327447872</v>
+        <v>221311</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>368426.0615881318</v>
+        <v>368426</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>525619.4830802769</v>
+        <v>525619</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2571449.836518117</v>
+        <v>2571450</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51948.29200767018</v>
+        <v>51948</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2363907.940068942</v>
+        <v>2363908</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>196515.6961384861</v>
+        <v>196516</v>
       </c>
     </row>
   </sheetData>
